--- a/document/ppt 용 도식.xlsx
+++ b/document/ppt 용 도식.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfff89d4400cc07b/Dev/Workspace/cafaterria_system/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="8_{9B8A2D0E-54E0-4E29-93B7-F19449566C31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BDFF36D0-6456-440C-AC88-268734A58D94}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="8_{9B8A2D0E-54E0-4E29-93B7-F19449566C31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D3B7B868-842E-4A7C-9287-74216BBE4316}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{819AA54A-191F-4CFF-8E1E-3960550CC373}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{819AA54A-191F-4CFF-8E1E-3960550CC373}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -507,19 +507,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -547,6 +544,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2477,6 +2477,202 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="직선 화살표 연결선 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA5FB851-A4D8-4903-8ED6-62289DC29D7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5844209" y="2816087"/>
+          <a:ext cx="2517913" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>921026</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38ACB811-3172-4803-8440-8E2B8F867085}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5844209" y="2590800"/>
+          <a:ext cx="921026" cy="337930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕"/>
+              <a:ea typeface="맑은 고딕"/>
+            </a:rPr>
+            <a:t>DB.properties</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1119809</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>2186611</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66262</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D2E5C0-501A-4F41-A1DD-C13A235860BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6964018" y="2431775"/>
+          <a:ext cx="1066802" cy="337930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕"/>
+              <a:ea typeface="맑은 고딕"/>
+            </a:rPr>
+            <a:t>FileInputStream</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3487,24 +3683,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB955FEC-E62B-4A81-8741-762355884DD9}">
   <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U36" sqref="A3:U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="9" width="1.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.125" style="1" customWidth="1"/>
-    <col min="11" max="17" width="1.375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="31.125" style="1" customWidth="1"/>
-    <col min="19" max="27" width="1.875" style="1" customWidth="1"/>
+    <col min="3" max="9" width="1.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.09765625" style="1" customWidth="1"/>
+    <col min="11" max="17" width="1.3984375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="31.09765625" style="1" customWidth="1"/>
+    <col min="19" max="27" width="1.8984375" style="1" customWidth="1"/>
     <col min="28" max="31" width="18.5" style="1" customWidth="1"/>
     <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3533,7 +3729,7 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3562,7 +3758,7 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
     </row>
-    <row r="3" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3591,7 +3787,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
     </row>
-    <row r="4" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3620,7 +3816,7 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
     </row>
-    <row r="5" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>
@@ -3649,9 +3845,9 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="6"/>
@@ -3661,7 +3857,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>1</v>
       </c>
       <c r="K6" s="6"/>
@@ -3671,7 +3867,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="S6" s="3"/>
@@ -3684,9 +3880,9 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
     </row>
-    <row r="7" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="10"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="6"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -3694,7 +3890,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="10"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="6"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -3702,7 +3898,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="10"/>
+      <c r="R7" s="9"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -3713,9 +3909,9 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
     </row>
-    <row r="8" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="6"/>
@@ -3725,7 +3921,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="K8" s="6"/>
@@ -3735,7 +3931,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="9" t="s">
+      <c r="R8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="S8" s="3"/>
@@ -3748,9 +3944,9 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
     </row>
-    <row r="9" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
-      <c r="B9" s="9"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="6"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -3758,7 +3954,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="9"/>
+      <c r="J9" s="10"/>
       <c r="K9" s="6"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -3766,7 +3962,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="9"/>
+      <c r="R9" s="10"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -3777,9 +3973,9 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
     </row>
-    <row r="10" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="6"/>
@@ -3789,7 +3985,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K10" s="6"/>
@@ -3799,7 +3995,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="9" t="s">
+      <c r="R10" s="10" t="s">
         <v>15</v>
       </c>
       <c r="S10" s="3"/>
@@ -3812,9 +4008,9 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
     </row>
-    <row r="11" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
-      <c r="B11" s="9"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="6"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -3822,7 +4018,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="9"/>
+      <c r="J11" s="10"/>
       <c r="K11" s="6"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -3830,7 +4026,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="9"/>
+      <c r="R11" s="10"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -3841,7 +4037,7 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
     </row>
-    <row r="12" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="7"/>
       <c r="C12" s="3"/>
@@ -3851,7 +4047,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K12" s="6"/>
@@ -3861,7 +4057,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="5"/>
-      <c r="R12" s="9" t="s">
+      <c r="R12" s="10" t="s">
         <v>16</v>
       </c>
       <c r="S12" s="3"/>
@@ -3874,7 +4070,7 @@
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
     </row>
-    <row r="13" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3884,7 +4080,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="9"/>
+      <c r="J13" s="10"/>
       <c r="K13" s="6"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -3892,7 +4088,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="9"/>
+      <c r="R13" s="10"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -3903,7 +4099,7 @@
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
     </row>
-    <row r="14" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3913,7 +4109,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="K14" s="6"/>
@@ -3923,7 +4119,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="9" t="s">
+      <c r="R14" s="10" t="s">
         <v>17</v>
       </c>
       <c r="S14" s="3"/>
@@ -3936,7 +4132,7 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
     </row>
-    <row r="15" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3946,7 +4142,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="9"/>
+      <c r="J15" s="10"/>
       <c r="K15" s="6"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -3954,7 +4150,7 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="9"/>
+      <c r="R15" s="10"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -3965,7 +4161,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3975,7 +4171,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K16" s="6"/>
@@ -3985,7 +4181,7 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="9" t="s">
+      <c r="R16" s="10" t="s">
         <v>18</v>
       </c>
       <c r="S16" s="3"/>
@@ -3998,7 +4194,7 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
     </row>
-    <row r="17" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4008,7 +4204,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="9"/>
+      <c r="J17" s="10"/>
       <c r="K17" s="6"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -4016,7 +4212,7 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="5"/>
-      <c r="R17" s="9"/>
+      <c r="R17" s="10"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -4027,7 +4223,7 @@
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
     </row>
-    <row r="18" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
@@ -4037,7 +4233,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="10" t="s">
         <v>13</v>
       </c>
       <c r="K18" s="6"/>
@@ -4047,7 +4243,7 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="9" t="s">
+      <c r="R18" s="10" t="s">
         <v>19</v>
       </c>
       <c r="S18" s="3"/>
@@ -4060,9 +4256,9 @@
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
     </row>
-    <row r="19" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="6"/>
@@ -4072,7 +4268,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="9"/>
+      <c r="J19" s="10"/>
       <c r="K19" s="6"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -4080,7 +4276,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="5"/>
-      <c r="R19" s="9"/>
+      <c r="R19" s="10"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
@@ -4091,9 +4287,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
     </row>
-    <row r="20" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="6"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -4120,9 +4316,9 @@
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
     </row>
-    <row r="21" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="6"/>
@@ -4151,9 +4347,9 @@
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
     </row>
-    <row r="22" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
-      <c r="B22" s="9"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="6"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -4180,9 +4376,9 @@
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
     </row>
-    <row r="23" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="6"/>
@@ -4213,9 +4409,9 @@
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
     </row>
-    <row r="24" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
-      <c r="B24" s="9"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="6"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -4242,7 +4438,7 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
     </row>
-    <row r="25" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="7"/>
       <c r="C25" s="3"/>
@@ -4252,7 +4448,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="10" t="s">
         <v>8</v>
       </c>
       <c r="K25" s="6"/>
@@ -4273,7 +4469,7 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
     </row>
-    <row r="26" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4283,7 +4479,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="9"/>
+      <c r="J26" s="10"/>
       <c r="K26" s="6"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -4302,7 +4498,7 @@
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
     </row>
-    <row r="27" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4312,7 +4508,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K27" s="6"/>
@@ -4333,7 +4529,7 @@
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
     </row>
-    <row r="28" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4343,7 +4539,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="9"/>
+      <c r="J28" s="10"/>
       <c r="K28" s="6"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -4362,7 +4558,7 @@
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
     </row>
-    <row r="29" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4372,7 +4568,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K29" s="6"/>
@@ -4382,7 +4578,7 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="10" t="s">
+      <c r="R29" s="9" t="s">
         <v>20</v>
       </c>
       <c r="S29" s="3"/>
@@ -4395,7 +4591,7 @@
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
     </row>
-    <row r="30" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4405,7 +4601,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="9"/>
+      <c r="J30" s="10"/>
       <c r="K30" s="6"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -4413,7 +4609,7 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="10"/>
+      <c r="R30" s="9"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
@@ -4424,7 +4620,7 @@
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
     </row>
-    <row r="31" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4434,7 +4630,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="10" t="s">
         <v>11</v>
       </c>
       <c r="K31" s="6"/>
@@ -4444,7 +4640,7 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="9" t="s">
+      <c r="R31" s="10" t="s">
         <v>21</v>
       </c>
       <c r="S31" s="3"/>
@@ -4457,7 +4653,7 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
     </row>
-    <row r="32" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4467,7 +4663,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="9"/>
+      <c r="J32" s="10"/>
       <c r="K32" s="6"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -4475,7 +4671,7 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="9"/>
+      <c r="R32" s="10"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
@@ -4486,7 +4682,7 @@
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
     </row>
-    <row r="33" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4496,7 +4692,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="9" t="s">
+      <c r="J33" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K33" s="6"/>
@@ -4506,7 +4702,7 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="9" t="s">
+      <c r="R33" s="10" t="s">
         <v>22</v>
       </c>
       <c r="S33" s="3"/>
@@ -4519,7 +4715,7 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
     </row>
-    <row r="34" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4529,7 +4725,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="9"/>
+      <c r="J34" s="10"/>
       <c r="K34" s="6"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -4537,7 +4733,7 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="9"/>
+      <c r="R34" s="10"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
@@ -4548,7 +4744,7 @@
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
     </row>
-    <row r="35" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4558,7 +4754,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="10" t="s">
         <v>4</v>
       </c>
       <c r="K35" s="6"/>
@@ -4568,7 +4764,7 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="9" t="s">
+      <c r="R35" s="10" t="s">
         <v>23</v>
       </c>
       <c r="S35" s="3"/>
@@ -4581,7 +4777,7 @@
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
     </row>
-    <row r="36" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4591,7 +4787,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="9"/>
+      <c r="J36" s="10"/>
       <c r="K36" s="6"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -4599,7 +4795,7 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="9"/>
+      <c r="R36" s="10"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
@@ -4610,7 +4806,7 @@
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
     </row>
-    <row r="37" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4639,7 +4835,7 @@
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
     </row>
-    <row r="38" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4668,7 +4864,7 @@
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
     </row>
-    <row r="39" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4697,7 +4893,7 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
     </row>
-    <row r="40" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4726,7 +4922,7 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
     </row>
-    <row r="41" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4755,7 +4951,7 @@
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
     </row>
-    <row r="42" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4784,7 +4980,7 @@
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
     </row>
-    <row r="43" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -4813,7 +5009,7 @@
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
     </row>
-    <row r="44" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -4842,7 +5038,7 @@
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
     </row>
-    <row r="45" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4871,7 +5067,7 @@
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
     </row>
-    <row r="46" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4900,7 +5096,7 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4929,7 +5125,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4958,7 +5154,7 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
     </row>
-    <row r="49" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4987,13 +5183,28 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
     </row>
-    <row r="50" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="J25:J26"/>
     <mergeCell ref="J27:J28"/>
@@ -5010,21 +5221,6 @@
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5037,17 +5233,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53D3926-3EC9-4CFC-83EB-3D0F96E291A2}">
   <dimension ref="A1:AT111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AF39" sqref="E5:AH41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="46" width="2.375" customWidth="1"/>
-    <col min="47" max="83" width="2.875" customWidth="1"/>
+    <col min="1" max="46" width="2.3984375" customWidth="1"/>
+    <col min="47" max="83" width="2.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -5095,7 +5291,7 @@
       <c r="AS1" s="8"/>
       <c r="AT1" s="8"/>
     </row>
-    <row r="2" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -5143,7 +5339,7 @@
       <c r="AS2" s="8"/>
       <c r="AT2" s="8"/>
     </row>
-    <row r="3" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -5191,7 +5387,7 @@
       <c r="AS3" s="8"/>
       <c r="AT3" s="8"/>
     </row>
-    <row r="4" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -5239,7 +5435,7 @@
       <c r="AS4" s="8"/>
       <c r="AT4" s="8"/>
     </row>
-    <row r="5" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -5255,29 +5451,29 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
-      <c r="AA5" s="13" t="s">
+      <c r="AA5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
       <c r="AI5" s="8"/>
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
@@ -5291,7 +5487,7 @@
       <c r="AS5" s="8"/>
       <c r="AT5" s="8"/>
     </row>
-    <row r="6" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -5307,25 +5503,25 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
       <c r="AI6" s="8"/>
       <c r="AJ6" s="8"/>
       <c r="AK6" s="8"/>
@@ -5339,43 +5535,43 @@
       <c r="AS6" s="8"/>
       <c r="AT6" s="8"/>
     </row>
-    <row r="7" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="8"/>
@@ -5389,19 +5585,19 @@
       <c r="AS7" s="8"/>
       <c r="AT7" s="8"/>
     </row>
-    <row r="8" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -5437,19 +5633,19 @@
       <c r="AS8" s="8"/>
       <c r="AT8" s="8"/>
     </row>
-    <row r="9" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -5485,7 +5681,7 @@
       <c r="AS9" s="8"/>
       <c r="AT9" s="8"/>
     </row>
-    <row r="10" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -5533,7 +5729,7 @@
       <c r="AS10" s="8"/>
       <c r="AT10" s="8"/>
     </row>
-    <row r="11" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -5581,7 +5777,7 @@
       <c r="AS11" s="8"/>
       <c r="AT11" s="8"/>
     </row>
-    <row r="12" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -5633,7 +5829,7 @@
       <c r="AS12" s="8"/>
       <c r="AT12" s="8"/>
     </row>
-    <row r="13" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -5681,7 +5877,7 @@
       <c r="AS13" s="8"/>
       <c r="AT13" s="8"/>
     </row>
-    <row r="14" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -5729,7 +5925,7 @@
       <c r="AS14" s="8"/>
       <c r="AT14" s="8"/>
     </row>
-    <row r="15" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -5779,7 +5975,7 @@
       <c r="AS15" s="8"/>
       <c r="AT15" s="8"/>
     </row>
-    <row r="16" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -5827,7 +6023,7 @@
       <c r="AS16" s="8"/>
       <c r="AT16" s="8"/>
     </row>
-    <row r="17" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -5875,7 +6071,7 @@
       <c r="AS17" s="8"/>
       <c r="AT17" s="8"/>
     </row>
-    <row r="18" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -5891,16 +6087,16 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="13" t="s">
+      <c r="P18" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
@@ -5925,7 +6121,7 @@
       <c r="AS18" s="8"/>
       <c r="AT18" s="8"/>
     </row>
-    <row r="19" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -5941,14 +6137,14 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
@@ -5973,7 +6169,7 @@
       <c r="AS19" s="8"/>
       <c r="AT19" s="8"/>
     </row>
-    <row r="20" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -5989,27 +6185,27 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
-      <c r="AA20" s="13" t="s">
+      <c r="AA20" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="22"/>
       <c r="AI20" s="8"/>
       <c r="AJ20" s="8"/>
       <c r="AK20" s="8"/>
@@ -6023,7 +6219,7 @@
       <c r="AS20" s="8"/>
       <c r="AT20" s="8"/>
     </row>
-    <row r="21" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -6050,14 +6246,14 @@
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="22"/>
       <c r="AI21" s="8"/>
       <c r="AJ21" s="8"/>
       <c r="AK21" s="8"/>
@@ -6071,7 +6267,7 @@
       <c r="AS21" s="8"/>
       <c r="AT21" s="8"/>
     </row>
-    <row r="22" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -6098,14 +6294,14 @@
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="22"/>
       <c r="AI22" s="8"/>
       <c r="AJ22" s="8"/>
       <c r="AK22" s="8"/>
@@ -6119,7 +6315,7 @@
       <c r="AS22" s="8"/>
       <c r="AT22" s="8"/>
     </row>
-    <row r="23" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -6167,7 +6363,7 @@
       <c r="AS23" s="8"/>
       <c r="AT23" s="8"/>
     </row>
-    <row r="24" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -6215,7 +6411,7 @@
       <c r="AS24" s="8"/>
       <c r="AT24" s="8"/>
     </row>
-    <row r="25" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -6263,7 +6459,7 @@
       <c r="AS25" s="8"/>
       <c r="AT25" s="8"/>
     </row>
-    <row r="26" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -6311,7 +6507,7 @@
       <c r="AS26" s="8"/>
       <c r="AT26" s="8"/>
     </row>
-    <row r="27" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -6361,7 +6557,7 @@
       <c r="AS27" s="8"/>
       <c r="AT27" s="8"/>
     </row>
-    <row r="28" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -6409,7 +6605,7 @@
       <c r="AS28" s="8"/>
       <c r="AT28" s="8"/>
     </row>
-    <row r="29" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -6459,7 +6655,7 @@
       <c r="AS29" s="8"/>
       <c r="AT29" s="8"/>
     </row>
-    <row r="30" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -6509,7 +6705,7 @@
       <c r="AS30" s="8"/>
       <c r="AT30" s="8"/>
     </row>
-    <row r="31" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -6557,7 +6753,7 @@
       <c r="AS31" s="8"/>
       <c r="AT31" s="8"/>
     </row>
-    <row r="32" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -6605,7 +6801,7 @@
       <c r="AS32" s="8"/>
       <c r="AT32" s="8"/>
     </row>
-    <row r="33" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -6653,7 +6849,7 @@
       <c r="AS33" s="8"/>
       <c r="AT33" s="8"/>
     </row>
-    <row r="34" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -6701,7 +6897,7 @@
       <c r="AS34" s="8"/>
       <c r="AT34" s="8"/>
     </row>
-    <row r="35" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -6749,7 +6945,7 @@
       <c r="AS35" s="8"/>
       <c r="AT35" s="8"/>
     </row>
-    <row r="36" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -6799,7 +6995,7 @@
       <c r="AS36" s="8"/>
       <c r="AT36" s="8"/>
     </row>
-    <row r="37" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -6847,7 +7043,7 @@
       <c r="AS37" s="8"/>
       <c r="AT37" s="8"/>
     </row>
-    <row r="38" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -6895,7 +7091,7 @@
       <c r="AS38" s="8"/>
       <c r="AT38" s="8"/>
     </row>
-    <row r="39" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -6929,9 +7125,9 @@
       <c r="AC39" s="8"/>
       <c r="AD39" s="8"/>
       <c r="AE39" s="8"/>
-      <c r="AF39" s="14"/>
-      <c r="AG39" s="15"/>
-      <c r="AH39" s="16"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="14"/>
+      <c r="AH39" s="15"/>
       <c r="AI39" s="8"/>
       <c r="AJ39" s="8"/>
       <c r="AK39" s="8"/>
@@ -6945,7 +7141,7 @@
       <c r="AS39" s="8"/>
       <c r="AT39" s="8"/>
     </row>
-    <row r="40" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -6977,9 +7173,9 @@
       <c r="AC40" s="8"/>
       <c r="AD40" s="8"/>
       <c r="AE40" s="8"/>
-      <c r="AF40" s="17"/>
-      <c r="AG40" s="18"/>
-      <c r="AH40" s="19"/>
+      <c r="AF40" s="16"/>
+      <c r="AG40" s="17"/>
+      <c r="AH40" s="18"/>
       <c r="AI40" s="8"/>
       <c r="AJ40" s="8"/>
       <c r="AK40" s="8"/>
@@ -6993,7 +7189,7 @@
       <c r="AS40" s="8"/>
       <c r="AT40" s="8"/>
     </row>
-    <row r="41" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -7025,9 +7221,9 @@
       <c r="AC41" s="8"/>
       <c r="AD41" s="8"/>
       <c r="AE41" s="8"/>
-      <c r="AF41" s="20"/>
-      <c r="AG41" s="21"/>
-      <c r="AH41" s="22"/>
+      <c r="AF41" s="19"/>
+      <c r="AG41" s="20"/>
+      <c r="AH41" s="21"/>
       <c r="AI41" s="8"/>
       <c r="AJ41" s="8"/>
       <c r="AK41" s="8"/>
@@ -7041,7 +7237,7 @@
       <c r="AS41" s="8"/>
       <c r="AT41" s="8"/>
     </row>
-    <row r="42" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -7089,7 +7285,7 @@
       <c r="AS42" s="8"/>
       <c r="AT42" s="8"/>
     </row>
-    <row r="43" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -7137,7 +7333,7 @@
       <c r="AS43" s="8"/>
       <c r="AT43" s="8"/>
     </row>
-    <row r="44" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -7185,7 +7381,7 @@
       <c r="AS44" s="8"/>
       <c r="AT44" s="8"/>
     </row>
-    <row r="45" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -7233,7 +7429,7 @@
       <c r="AS45" s="8"/>
       <c r="AT45" s="8"/>
     </row>
-    <row r="46" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -7281,7 +7477,7 @@
       <c r="AS46" s="8"/>
       <c r="AT46" s="8"/>
     </row>
-    <row r="47" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -7329,7 +7525,7 @@
       <c r="AS47" s="8"/>
       <c r="AT47" s="8"/>
     </row>
-    <row r="48" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -7377,7 +7573,7 @@
       <c r="AS48" s="8"/>
       <c r="AT48" s="8"/>
     </row>
-    <row r="49" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -7425,7 +7621,7 @@
       <c r="AS49" s="8"/>
       <c r="AT49" s="8"/>
     </row>
-    <row r="50" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -7473,67 +7669,67 @@
       <c r="AS50" s="8"/>
       <c r="AT50" s="8"/>
     </row>
-    <row r="51" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:46" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" spans="1:46" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="P39:W41"/>
